--- a/data/Preparation/raw/IT +.xlsx
+++ b/data/Preparation/raw/IT +.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\use\Dropbox (OPML)\LIGADA MEL\MEL working\09 Follow up studies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722E290-C837-460E-AF02-691CB26B13CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E905A6-87C3-4B4B-A027-6D79ACDFFD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="118">
   <si>
     <t>Nome</t>
   </si>
@@ -423,7 +423,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -431,46 +431,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -759,2546 +725,2610 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>44075</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="I2" s="1">
         <v>841131739</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>44075</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I3" s="1">
         <v>842803338</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>44075</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="1">
         <v>848910050</v>
       </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>44075</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I5" s="1">
         <v>848756076</v>
       </c>
       <c r="J5">
         <v>846797431</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="3" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>44075</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I6" s="1">
         <v>842568812</v>
       </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>44075</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="1">
         <v>843712483</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="3" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>44075</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="1">
         <v>843802232</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="3" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>44075</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="1">
         <v>852150741</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>44075</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="1">
         <v>847391057</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>44075</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="1">
         <v>845865117</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>44075</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="1">
         <v>847146075</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="3" t="s">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>44075</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="1">
         <v>844872102</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>44075</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="1">
         <v>844792855</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="3" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>44075</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="1">
         <v>847035883</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="3" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>21</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>44075</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" s="1">
         <v>847321042</v>
       </c>
       <c r="J16">
         <v>848933333</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="3" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>44075</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="1">
         <v>848078166</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="3" t="s">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>44075</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="1">
         <v>844262669</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="3" t="s">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>44075</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="1">
         <v>847699556</v>
       </c>
       <c r="J19">
         <v>840486728</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>20</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>44075</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I20" s="1">
         <v>852982421</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="3" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>23</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="C21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>44075</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="1">
         <v>846699440</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="3" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="2">
         <v>44075</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="1">
         <v>842930905</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="3" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>44075</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" s="1">
         <v>848606978</v>
       </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="3" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="N23" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>44075</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="1">
         <v>847419206</v>
       </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>44075</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" s="1">
         <v>846544868</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="3" t="s">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>23</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>44075</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="H26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" s="1">
         <v>841154007</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="3" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>17</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>44075</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="H27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I27" s="1">
         <v>849692354</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="3" t="s">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="1">
         <v>24</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>44075</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="2">
+      <c r="H28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="1">
         <v>844766975</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>21</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="2">
         <v>44075</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="2">
+      <c r="H29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="1">
         <v>842242232</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="1">
         <v>23</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="2">
         <v>44075</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="1">
         <v>846766704</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" s="3" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>20</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>44075</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="H31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="1">
         <v>840341909</v>
       </c>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="3" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="1">
         <v>20</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="3" t="s">
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>44075</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="H32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" s="1">
         <v>845002512</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M32" s="3" t="s">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>21</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>44228</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" s="5">
+      <c r="H33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" s="1">
         <v>847733812</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="1">
         <v>847385544</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6" t="s">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>22</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="2">
         <v>44228</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="5">
+      <c r="H34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" s="1">
         <v>841409391</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="1">
         <v>845000677</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6" t="s">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>19</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>44228</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="1">
         <v>847670723</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="1">
         <v>845023860</v>
       </c>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6" t="s">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>20</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F36" s="3" t="s">
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>44228</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="5">
+      <c r="H36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" s="1">
         <v>843701737</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="1">
         <v>852917424</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="6" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>19</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="2">
         <v>44228</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="5">
+      <c r="H37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I37" s="1">
         <v>845516864</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="1">
         <v>842822250</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="6" t="s">
+      <c r="K37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>24</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="C38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="2">
         <v>44228</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="H38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" s="1">
         <v>848545250</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="1">
         <v>847520770</v>
       </c>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6" t="s">
+      <c r="K38" s="1"/>
+      <c r="L38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>20</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="2">
         <v>44228</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" s="5">
+      <c r="H39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="1">
         <v>849311056</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="1">
         <v>847673489</v>
       </c>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M39" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>25</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="C40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="2">
         <v>44228</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="5">
+      <c r="H40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" s="1">
         <v>846416792</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6" t="s">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>20</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="2">
         <v>44228</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="5">
+      <c r="H41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="1">
         <v>846222523</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="1">
         <v>842214122</v>
       </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="6" t="s">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="3" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="2">
         <v>44228</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="5">
+      <c r="H42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="1">
         <v>840565034</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="1">
         <v>848272211</v>
       </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="6" t="s">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>21</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="2">
         <v>44228</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="5">
+      <c r="H43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="1">
         <v>844505157</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="1">
         <v>842091488</v>
       </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="6" t="s">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M43" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>20</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="3" t="s">
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="2">
         <v>44228</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" s="5">
+      <c r="H44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" s="1">
         <v>842982906</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="6" t="s">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>22</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="C45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="2">
         <v>44228</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="5">
+      <c r="H45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="1">
         <v>846081909</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="1">
         <v>845964874</v>
       </c>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="6" t="s">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="N45" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>22</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F46" s="3" t="s">
+      <c r="C46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="2">
         <v>44228</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" s="5">
+      <c r="H46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" s="1">
         <v>855452377</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="1">
         <v>845745116</v>
       </c>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="6" t="s">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="N46" s="3" t="s">
+      <c r="N46" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>23</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="C47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="2">
         <v>44228</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" s="5">
+      <c r="H47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="1">
         <v>843979808</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="6" t="s">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>19</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="3" t="s">
+      <c r="C48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="2">
         <v>44228</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="5">
+      <c r="H48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="1">
         <v>846139493</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="1">
         <v>849228608</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="6" t="s">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>25</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="C49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="2">
         <v>44228</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="5">
+      <c r="H49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="1">
         <v>842327300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="1">
         <v>847336171</v>
       </c>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="6" t="s">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>19</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="C50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="2">
         <v>44228</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I50" s="5">
+      <c r="H50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I50" s="1">
         <v>843932122</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="1">
         <v>849242171</v>
       </c>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="6" t="s">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>22</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="3" t="s">
+      <c r="C51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="2">
         <v>44228</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" s="5">
+      <c r="H51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" s="1">
         <v>847224480</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="1">
         <v>847588474</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="6" t="s">
+      <c r="K51" s="1"/>
+      <c r="L51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M51" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="N51" s="3" t="s">
+      <c r="N51" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>20</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="3" t="s">
+      <c r="C52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="2">
         <v>44228</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" s="5">
+      <c r="H52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" s="1">
         <v>843694502</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="1">
         <v>842505926</v>
       </c>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="6" t="s">
+      <c r="K52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>20</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="C53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="2">
         <v>44228</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" s="5">
+      <c r="H53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" s="1">
         <v>849532046</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="1">
         <v>847838342</v>
       </c>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="6" t="s">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>21</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="C54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="2">
         <v>44228</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" s="5">
+      <c r="H54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" s="1">
         <v>844025757</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="1">
         <v>850167844</v>
       </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="6" t="s">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>22</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F55" s="3" t="s">
+      <c r="C55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="2">
         <v>44228</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" s="5">
+      <c r="H55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="1">
         <v>847347537</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="1">
         <v>845209859</v>
       </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="6" t="s">
+      <c r="K55" s="1"/>
+      <c r="L55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>18</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="C56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="2">
         <v>44228</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="5">
+      <c r="H56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I56" s="1">
         <v>846175128</v>
       </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="6" t="s">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>23</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F57" s="3" t="s">
+      <c r="C57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="2">
         <v>44228</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" s="5">
+      <c r="H57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="1">
         <v>840208623</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="1">
         <v>845723032</v>
       </c>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="6" t="s">
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="N57" s="3" t="s">
+      <c r="N57" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>21</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="2">
         <v>44228</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I58" s="5">
+      <c r="H58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" s="1">
         <v>846522165</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="1">
         <v>846732865</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="6" t="s">
+      <c r="K58" s="1"/>
+      <c r="L58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>23</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="C59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="2">
         <v>44228</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I59" s="5">
+      <c r="H59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="1">
         <v>846810164</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="1">
         <v>845082881</v>
       </c>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="6" t="s">
+      <c r="K59" s="1"/>
+      <c r="L59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N59" s="3" t="s">
+      <c r="N59" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>20</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F60" s="3" t="s">
+      <c r="C60" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="2">
         <v>44228</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" s="5">
+      <c r="H60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" s="1">
         <v>842467459</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="1">
         <v>844848186</v>
       </c>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="6" t="s">
+      <c r="K60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N60" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>20</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F61" s="3" t="s">
+      <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="2">
         <v>44228</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I61" s="5" t="s">
+      <c r="H61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="1">
         <v>845648721</v>
       </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="6" t="s">
+      <c r="K61" s="1"/>
+      <c r="L61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="N61" s="3" t="s">
+      <c r="N61" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="3">
         <v>24</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F62" s="3" t="s">
+      <c r="C62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G62" s="2">
         <v>44228</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62" s="5">
+      <c r="H62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I62" s="1">
         <v>849165012</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="1">
         <v>842432527</v>
       </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="6" t="s">
+      <c r="K62" s="1"/>
+      <c r="L62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="3">
         <v>19</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F63" s="3" t="s">
+      <c r="C63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="2">
         <v>44228</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" s="5">
+      <c r="H63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="1">
         <v>861626557</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="1">
         <v>868347430</v>
       </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="6" t="s">
+      <c r="K63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="N63" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>22</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="C64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G64" s="4">
+      <c r="G64" s="2">
         <v>44228</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I64" s="5">
+      <c r="H64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" s="1">
         <v>844883021</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="1">
         <v>824117368</v>
       </c>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="6" t="s">
+      <c r="K64" s="1"/>
+      <c r="L64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N64" s="3" t="s">
+      <c r="N64" s="1" t="s">
         <v>51</v>
       </c>
     </row>
